--- a/profile_links.xlsx
+++ b/profile_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debji\Downloads\Mezink_Code_Files\playwright_extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48FBA6-751E-4943-A9C0-462605D13E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A211DE-8960-4872-8BDF-628C58FC942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>links</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/@CodeWithHarry/shorts</t>
-  </si>
-  <si>
-    <t>https://x.com/elonmusk</t>
-  </si>
-  <si>
-    <t>https://x.com/spacesudoer</t>
   </si>
 </sst>
 </file>
@@ -322,10 +316,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -353,16 +347,6 @@
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
